--- a/clcore_ig/output/ValueSet-VSNombreCampana.xlsx
+++ b/clcore_ig/output/ValueSet-VSNombreCampana.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from Campañas Inmuniz" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.7</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Chile (http://hl7chile.cl, chair@hl7chile.cl)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
